--- a/database/AN_pp/expdata/4002.xlsx
+++ b/database/AN_pp/expdata/4002.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/physicsstudentresearch/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fafd12/GIT/jam3d/database/AN_pp/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AC06874-5676-C24D-9755-1C718E27CFF2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C4DDB12-35A2-5344-856D-9D787C676D20}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7540" yWindow="6040" windowWidth="27640" windowHeight="15960" xr2:uid="{9EC39F61-D8CB-7C4A-AAE3-D8EC4AA8F854}"/>
+    <workbookView xWindow="7080" yWindow="3980" windowWidth="27640" windowHeight="15960" xr2:uid="{9EC39F61-D8CB-7C4A-AAE3-D8EC4AA8F854}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="17">
   <si>
     <t>xF</t>
   </si>
@@ -54,21 +54,9 @@
     <t>obs</t>
   </si>
   <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>&lt;y&gt;</t>
-  </si>
-  <si>
     <t>Dependence</t>
   </si>
   <si>
-    <t>xFmin</t>
-  </si>
-  <si>
-    <t>xFmax</t>
-  </si>
-  <si>
     <t>sys_err_u</t>
   </si>
   <si>
@@ -82,6 +70,12 @@
   </si>
   <si>
     <t>AN</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>gam&gt;2</t>
   </si>
 </sst>
 </file>
@@ -90,7 +84,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000_ "/>
-    <numFmt numFmtId="168" formatCode="0_ "/>
+    <numFmt numFmtId="165" formatCode="0_ "/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -195,7 +189,7 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -510,15 +504,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB205A1E-4D12-774D-8553-618D4B5A55E8}">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="17" thickBot="1">
+    <row r="1" spans="1:12" ht="17" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -529,7 +523,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -544,28 +538,19 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="2">
         <v>0.221274</v>
       </c>
@@ -585,36 +570,25 @@
         <v>200</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
       <c r="J2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2">
-        <f>ASINH(A2*F2/(2*E2))</f>
-        <v>3.0531143807970103</v>
-      </c>
-      <c r="L2">
-        <f>AVERAGE(K2:K10)</f>
-        <v>3.309269352135912</v>
-      </c>
-      <c r="M2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0.18</v>
-      </c>
-      <c r="O2">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>13</v>
+      </c>
+      <c r="K2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="3">
         <v>0.25705099999999997</v>
       </c>
@@ -634,32 +608,25 @@
         <v>200</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
         <v>16</v>
       </c>
-      <c r="I3" t="s">
-        <v>17</v>
-      </c>
       <c r="J3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3">
-        <f t="shared" ref="K3:K10" si="0">ASINH(A3*F3/(2*E3))</f>
-        <v>3.1149216229942098</v>
-      </c>
-      <c r="M3" t="s">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0.23</v>
-      </c>
-      <c r="O3">
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>13</v>
+      </c>
+      <c r="K3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="3">
         <v>0.30383399999999999</v>
       </c>
@@ -679,32 +646,25 @@
         <v>200</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" t="s">
         <v>16</v>
       </c>
-      <c r="I4" t="s">
-        <v>17</v>
-      </c>
       <c r="J4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4">
-        <f t="shared" si="0"/>
-        <v>3.1803720579994987</v>
-      </c>
-      <c r="M4" t="s">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="O4">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>13</v>
+      </c>
+      <c r="K4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="3">
         <v>0.352904</v>
       </c>
@@ -724,32 +684,25 @@
         <v>200</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" t="s">
         <v>16</v>
       </c>
-      <c r="I5" t="s">
-        <v>17</v>
-      </c>
       <c r="J5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="0"/>
-        <v>3.2455848519378345</v>
-      </c>
-      <c r="M5" t="s">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0.33</v>
-      </c>
-      <c r="O5">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>13</v>
+      </c>
+      <c r="K5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="3">
         <v>0.40290900000000002</v>
       </c>
@@ -769,32 +722,25 @@
         <v>200</v>
       </c>
       <c r="G6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" t="s">
         <v>16</v>
       </c>
-      <c r="I6" t="s">
-        <v>17</v>
-      </c>
       <c r="J6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="0"/>
-        <v>3.3198369036898363</v>
-      </c>
-      <c r="M6" t="s">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0.38</v>
-      </c>
-      <c r="O6">
-        <v>0.43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>13</v>
+      </c>
+      <c r="K6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="3">
         <v>0.45312999999999998</v>
       </c>
@@ -814,32 +760,25 @@
         <v>200</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" t="s">
         <v>16</v>
       </c>
-      <c r="I7" t="s">
-        <v>17</v>
-      </c>
       <c r="J7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="0"/>
-        <v>3.3936990561979399</v>
-      </c>
-      <c r="M7" t="s">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0.43</v>
-      </c>
-      <c r="O7">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>13</v>
+      </c>
+      <c r="K7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="3">
         <v>0.50334100000000004</v>
       </c>
@@ -859,32 +798,25 @@
         <v>200</v>
       </c>
       <c r="G8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" t="s">
         <v>16</v>
       </c>
-      <c r="I8" t="s">
-        <v>17</v>
-      </c>
       <c r="J8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="0"/>
-        <v>3.4524300741202234</v>
-      </c>
-      <c r="M8" t="s">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0.48</v>
-      </c>
-      <c r="O8">
-        <v>0.53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>13</v>
+      </c>
+      <c r="K8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="3">
         <v>0.55356499999999997</v>
       </c>
@@ -904,32 +836,25 @@
         <v>200</v>
       </c>
       <c r="G9" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" t="s">
         <v>16</v>
       </c>
-      <c r="I9" t="s">
-        <v>17</v>
-      </c>
       <c r="J9" t="s">
-        <v>18</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="0"/>
-        <v>3.4980344997541293</v>
-      </c>
-      <c r="M9" t="s">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0.53</v>
-      </c>
-      <c r="O9">
-        <v>0.57999999999999996</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="17" thickBot="1">
+        <v>13</v>
+      </c>
+      <c r="K9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="17" thickBot="1">
       <c r="A10" s="4">
         <v>0.61230300000000004</v>
       </c>
@@ -949,29 +874,22 @@
         <v>200</v>
       </c>
       <c r="G10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" t="s">
         <v>16</v>
       </c>
-      <c r="I10" t="s">
-        <v>17</v>
-      </c>
       <c r="J10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="0"/>
-        <v>3.5254307217325249</v>
-      </c>
-      <c r="M10" t="s">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="O10">
-        <v>0.65</v>
+        <v>13</v>
+      </c>
+      <c r="K10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/database/AN_pp/expdata/4002.xlsx
+++ b/database/AN_pp/expdata/4002.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fafd12/GIT/jam3d/database/AN_pp/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C4DDB12-35A2-5344-856D-9D787C676D20}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE1CA699-DDCA-1249-9DF8-1D3CE1DFDE0D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7080" yWindow="3980" windowWidth="27640" windowHeight="15960" xr2:uid="{9EC39F61-D8CB-7C4A-AAE3-D8EC4AA8F854}"/>
+    <workbookView xWindow="5960" yWindow="3980" windowWidth="27640" windowHeight="15960" xr2:uid="{9EC39F61-D8CB-7C4A-AAE3-D8EC4AA8F854}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="15">
   <si>
     <t>xF</t>
   </si>
@@ -70,12 +70,6 @@
   </si>
   <si>
     <t>AN</t>
-  </si>
-  <si>
-    <t>notes</t>
-  </si>
-  <si>
-    <t>gam&gt;2</t>
   </si>
 </sst>
 </file>
@@ -504,15 +498,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB205A1E-4D12-774D-8553-618D4B5A55E8}">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="17" thickBot="1">
+    <row r="1" spans="1:11" ht="17" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -538,19 +532,16 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:11">
       <c r="A2" s="2">
         <v>0.221274</v>
       </c>
@@ -576,19 +567,16 @@
         <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="3">
         <v>0.25705099999999997</v>
       </c>
@@ -614,19 +602,16 @@
         <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="3">
         <v>0.30383399999999999</v>
       </c>
@@ -652,19 +637,16 @@
         <v>12</v>
       </c>
       <c r="I4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="3">
         <v>0.352904</v>
       </c>
@@ -690,19 +672,16 @@
         <v>12</v>
       </c>
       <c r="I5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="3">
         <v>0.40290900000000002</v>
       </c>
@@ -728,19 +707,16 @@
         <v>12</v>
       </c>
       <c r="I6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K6" t="s">
-        <v>14</v>
-      </c>
-      <c r="L6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="3">
         <v>0.45312999999999998</v>
       </c>
@@ -766,19 +742,16 @@
         <v>12</v>
       </c>
       <c r="I7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="3">
         <v>0.50334100000000004</v>
       </c>
@@ -804,19 +777,16 @@
         <v>12</v>
       </c>
       <c r="I8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K8" t="s">
-        <v>14</v>
-      </c>
-      <c r="L8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="3">
         <v>0.55356499999999997</v>
       </c>
@@ -842,19 +812,16 @@
         <v>12</v>
       </c>
       <c r="I9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="17" thickBot="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="17" thickBot="1">
       <c r="A10" s="4">
         <v>0.61230300000000004</v>
       </c>
@@ -880,15 +847,12 @@
         <v>12</v>
       </c>
       <c r="I10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K10" t="s">
-        <v>14</v>
-      </c>
-      <c r="L10" t="s">
         <v>0</v>
       </c>
     </row>

--- a/database/AN_pp/expdata/4002.xlsx
+++ b/database/AN_pp/expdata/4002.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fafd12/GIT/jam3d/database/AN_pp/expdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/physicsstudentresearch/Documents/jam3d/database/AN_pp/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE1CA699-DDCA-1249-9DF8-1D3CE1DFDE0D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B42F021-0C00-0844-9145-A3B4688458C3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5960" yWindow="3980" windowWidth="27640" windowHeight="15960" xr2:uid="{9EC39F61-D8CB-7C4A-AAE3-D8EC4AA8F854}"/>
+    <workbookView xWindow="1160" yWindow="1020" windowWidth="27640" windowHeight="15960" xr2:uid="{9EC39F61-D8CB-7C4A-AAE3-D8EC4AA8F854}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -76,10 +76,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.0000_ "/>
-    <numFmt numFmtId="165" formatCode="0_ "/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="12"/>
@@ -97,21 +93,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="6">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -119,71 +109,15 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -501,12 +435,12 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="17" thickBot="1">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -542,22 +476,22 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="2">
+      <c r="A2">
         <v>0.221274</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2">
         <v>8.0309499999999998E-4</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2">
         <v>1.3323600000000001E-3</v>
       </c>
-      <c r="D2" s="8">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
         <v>2.0940099999999999</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2">
         <v>200</v>
       </c>
       <c r="G2" t="s">
@@ -577,22 +511,22 @@
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="3">
+      <c r="A3">
         <v>0.25705099999999997</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3">
         <v>2.3332700000000001E-3</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3">
         <v>5.40688E-4</v>
       </c>
-      <c r="D3" s="8">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
         <v>2.2861899999999999</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3">
         <v>200</v>
       </c>
       <c r="G3" t="s">
@@ -612,22 +546,22 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="3">
+      <c r="A4">
         <v>0.30383399999999999</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4">
         <v>3.20623E-3</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4">
         <v>5.2648799999999998E-4</v>
       </c>
-      <c r="D4" s="8">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3">
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
         <v>2.5304600000000002</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4">
         <v>200</v>
       </c>
       <c r="G4" t="s">
@@ -647,22 +581,22 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="3">
+      <c r="A5">
         <v>0.352904</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5">
         <v>5.0649099999999997E-3</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5">
         <v>6.4922700000000005E-4</v>
       </c>
-      <c r="D5" s="8">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
         <v>2.7530000000000001</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5">
         <v>200</v>
       </c>
       <c r="G5" t="s">
@@ -682,22 +616,22 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="3">
+      <c r="A6">
         <v>0.40290900000000002</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6">
         <v>5.6405400000000003E-3</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6">
         <v>8.4994400000000005E-4</v>
       </c>
-      <c r="D6" s="8">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3">
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
         <v>2.9175499999999999</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6">
         <v>200</v>
       </c>
       <c r="G6" t="s">
@@ -717,22 +651,22 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="3">
+      <c r="A7">
         <v>0.45312999999999998</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7">
         <v>7.7889600000000002E-3</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7">
         <v>1.0931199999999999E-3</v>
       </c>
-      <c r="D7" s="8">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3">
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>3.04704</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7">
         <v>200</v>
       </c>
       <c r="G7" t="s">
@@ -752,22 +686,22 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="3">
+      <c r="A8">
         <v>0.50334100000000004</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8">
         <v>8.4387999999999998E-3</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8">
         <v>1.37886E-3</v>
       </c>
-      <c r="D8" s="8">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3">
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3.1912199999999999</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8">
         <v>200</v>
       </c>
       <c r="G8" t="s">
@@ -787,22 +721,22 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="3">
+      <c r="A9">
         <v>0.55356499999999997</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9">
         <v>1.24545E-2</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9">
         <v>1.7034400000000001E-3</v>
       </c>
-      <c r="D9" s="8">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3">
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
         <v>3.3528899999999999</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9">
         <v>200</v>
       </c>
       <c r="G9" t="s">
@@ -821,23 +755,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="17" thickBot="1">
-      <c r="A10" s="4">
+    <row r="10" spans="1:11">
+      <c r="A10">
         <v>0.61230300000000004</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10">
         <v>1.34666E-2</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10">
         <v>1.81179E-3</v>
       </c>
-      <c r="D10" s="8">
-        <v>0</v>
-      </c>
-      <c r="E10" s="4">
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
         <v>3.60826</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10">
         <v>200</v>
       </c>
       <c r="G10" t="s">
